--- a/schedule/RECIPE_2.xlsx
+++ b/schedule/RECIPE_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="select_data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>SR NO</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>Width_14</t>
-  </si>
-  <si>
-    <t>9293</t>
   </si>
 </sst>
 </file>
@@ -332,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -399,31 +396,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -440,6 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,41 +436,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -593,38 +541,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AC9" totalsRowShown="0">
-  <autoFilter ref="A1:AC9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AC8" totalsRowShown="0">
+  <autoFilter ref="A1:AC8"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="PROD_ID" dataDxfId="31"/>
-    <tableColumn id="2" name="Angle_1" dataDxfId="30"/>
-    <tableColumn id="3" name="Angle_2" dataDxfId="29"/>
-    <tableColumn id="4" name="Angle_3" dataDxfId="28"/>
-    <tableColumn id="5" name="Angle_4" dataDxfId="27"/>
-    <tableColumn id="6" name="Angle_5" dataDxfId="26"/>
-    <tableColumn id="7" name="Angle_6" dataDxfId="25"/>
-    <tableColumn id="8" name="Angle_7" dataDxfId="24"/>
-    <tableColumn id="9" name="Angle_8" dataDxfId="23"/>
-    <tableColumn id="10" name="Angle_9" dataDxfId="22"/>
-    <tableColumn id="11" name="Angle_10" dataDxfId="21"/>
-    <tableColumn id="12" name="Angle_11" dataDxfId="20"/>
-    <tableColumn id="13" name="Angle_12" dataDxfId="19"/>
-    <tableColumn id="14" name="Angle_13" dataDxfId="18"/>
-    <tableColumn id="15" name="Angle_14" dataDxfId="17"/>
-    <tableColumn id="16" name="CONV_1" dataDxfId="16"/>
-    <tableColumn id="17" name="CONV_2" dataDxfId="15"/>
-    <tableColumn id="18" name="CONV_3" dataDxfId="14"/>
-    <tableColumn id="19" name="CONV_4" dataDxfId="13"/>
-    <tableColumn id="20" name="CONV_5" dataDxfId="12"/>
-    <tableColumn id="21" name="CONV_6" dataDxfId="11"/>
-    <tableColumn id="22" name="CONV_7" dataDxfId="10"/>
-    <tableColumn id="23" name="CONV_8" dataDxfId="9"/>
-    <tableColumn id="24" name="CONV_9" dataDxfId="8"/>
-    <tableColumn id="25" name="CONV_10" dataDxfId="7"/>
-    <tableColumn id="26" name="CONV_11" dataDxfId="6"/>
-    <tableColumn id="27" name="CONV_12" dataDxfId="5"/>
-    <tableColumn id="28" name="CONV_13" dataDxfId="4"/>
-    <tableColumn id="29" name="CONV_14" dataDxfId="3"/>
+    <tableColumn id="1" name="PROD_ID" dataDxfId="28"/>
+    <tableColumn id="2" name="Angle_1" dataDxfId="27"/>
+    <tableColumn id="3" name="Angle_2" dataDxfId="26"/>
+    <tableColumn id="4" name="Angle_3" dataDxfId="25"/>
+    <tableColumn id="5" name="Angle_4" dataDxfId="24"/>
+    <tableColumn id="6" name="Angle_5" dataDxfId="23"/>
+    <tableColumn id="7" name="Angle_6" dataDxfId="22"/>
+    <tableColumn id="8" name="Angle_7" dataDxfId="21"/>
+    <tableColumn id="9" name="Angle_8" dataDxfId="20"/>
+    <tableColumn id="10" name="Angle_9" dataDxfId="19"/>
+    <tableColumn id="11" name="Angle_10" dataDxfId="18"/>
+    <tableColumn id="12" name="Angle_11" dataDxfId="17"/>
+    <tableColumn id="13" name="Angle_12" dataDxfId="16"/>
+    <tableColumn id="14" name="Angle_13" dataDxfId="15"/>
+    <tableColumn id="15" name="Angle_14" dataDxfId="14"/>
+    <tableColumn id="16" name="CONV_1" dataDxfId="13"/>
+    <tableColumn id="17" name="CONV_2" dataDxfId="12"/>
+    <tableColumn id="18" name="CONV_3" dataDxfId="11"/>
+    <tableColumn id="19" name="CONV_4" dataDxfId="10"/>
+    <tableColumn id="20" name="CONV_5" dataDxfId="9"/>
+    <tableColumn id="21" name="CONV_6" dataDxfId="8"/>
+    <tableColumn id="22" name="CONV_7" dataDxfId="7"/>
+    <tableColumn id="23" name="CONV_8" dataDxfId="6"/>
+    <tableColumn id="24" name="CONV_9" dataDxfId="5"/>
+    <tableColumn id="25" name="CONV_10" dataDxfId="4"/>
+    <tableColumn id="26" name="CONV_11" dataDxfId="3"/>
+    <tableColumn id="27" name="CONV_12" dataDxfId="2"/>
+    <tableColumn id="28" name="CONV_13" dataDxfId="1"/>
+    <tableColumn id="29" name="CONV_14" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -915,15 +863,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="15"/>
+    <col min="2" max="2" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1374,70 +1322,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="5">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:R8 A9">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:R9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:R8">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1451,7 +1338,7 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,805 +1351,744 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1110</v>
       </c>
-      <c r="B2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="C2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="D2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="E2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="F2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="G2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="H2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="I2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="J2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="K2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="L2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="M2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="N2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="O2" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="P2" s="8">
+      <c r="B2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="I2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="J2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="K2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="L2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="M2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="N2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="O2" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="P2" s="9">
         <v>1.42</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="9">
         <v>1.45</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="9">
         <v>1.48</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="9">
         <v>1.51</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="9">
         <v>1.54</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="9">
         <v>1.57</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="9">
         <v>1.6</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="9">
         <v>1.63</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="9">
         <v>1.66</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="9">
         <v>0.75</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="9">
         <v>0.85</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="9">
         <v>0.9</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="9">
         <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>1149</v>
       </c>
-      <c r="B3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="C3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="D3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="E3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="F3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="G3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="H3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="I3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="J3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="K3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="L3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="M3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="N3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="O3" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="B3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="I3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="J3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="K3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="L3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="M3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="N3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="O3" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="P3" s="9">
         <v>1.42</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="9">
         <v>1.45</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="9">
         <v>1.48</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="9">
         <v>1.51</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="9">
         <v>1.54</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="9">
         <v>1.57</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="9">
         <v>1.6</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="9">
         <v>1.63</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="9">
         <v>1.66</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="9">
         <v>0.75</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="9">
         <v>0.85</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="9">
         <v>0.9</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="9">
         <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>1109</v>
       </c>
-      <c r="B4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="C4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="E4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="F4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="G4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="I4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="J4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="K4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="L4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="M4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="N4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="O4" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="B4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="K4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="L4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="M4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="N4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="O4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="P4" s="9">
         <v>1.42</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="9">
         <v>1.45</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="9">
         <v>1.48</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="9">
         <v>1.51</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="9">
         <v>1.54</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="9">
         <v>1.57</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="9">
         <v>1.6</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="9">
         <v>1.63</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="9">
         <v>1.66</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="9">
         <v>0.75</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="9">
         <v>0.85</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="9">
         <v>0.9</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="9">
         <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>1366</v>
       </c>
-      <c r="B5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="C5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="D5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="H5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="I5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="J5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="K5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="L5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="M5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="N5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="O5" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="P5" s="8">
+      <c r="B5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="I5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="M5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="N5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="O5" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="P5" s="9">
         <v>1.42</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="9">
         <v>1.45</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="9">
         <v>1.48</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="9">
         <v>1.51</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="9">
         <v>1.54</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="9">
         <v>1.57</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="9">
         <v>1.6</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="9">
         <v>1.63</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="9">
         <v>1.66</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="9">
         <v>0.75</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="9">
         <v>0.85</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="9">
         <v>0.9</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="9">
         <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>1009</v>
       </c>
-      <c r="B6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="C6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="G6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="H6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="I6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="J6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="K6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="L6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="M6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="N6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="O6" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="B6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="I6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="K6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="L6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="M6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="N6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="O6" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="P6" s="9">
         <v>1.42</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="9">
         <v>1.45</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="9">
         <v>1.48</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="9">
         <v>1.51</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="9">
         <v>1.54</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="9">
         <v>1.57</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="9">
         <v>1.6</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="9">
         <v>1.63</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="9">
         <v>1.66</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="9">
         <v>0.75</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="9">
         <v>0.85</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="9">
         <v>0.9</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="9">
         <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>1057</v>
       </c>
-      <c r="B7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="C7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="D7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="E7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="F7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="G7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="H7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="I7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="J7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="K7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="L7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="M7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="N7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="O7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="B7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="I7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="K7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="L7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="M7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="N7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="O7" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="P7" s="9">
         <v>1.42</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="9">
         <v>1.45</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="9">
         <v>1.48</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="9">
         <v>1.51</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="9">
         <v>1.54</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="9">
         <v>1.57</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="9">
         <v>1.6</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="9">
         <v>1.63</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="9">
         <v>1.66</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="9">
         <v>0.75</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="9">
         <v>0.85</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="9">
         <v>0.9</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="9">
         <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>1234</v>
       </c>
-      <c r="B8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="C8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="D8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="E8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="F8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="G8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="H8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="I8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="J8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="K8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="L8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="M8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="N8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="O8" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="B8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="I8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="K8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="L8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="M8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="N8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="O8" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="P8" s="9">
         <v>1.42</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="9">
         <v>1.45</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="9">
         <v>1.48</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="9">
         <v>1.51</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="9">
         <v>1.54</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="9">
         <v>1.57</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="9">
         <v>1.6</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="9">
         <v>1.63</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="9">
         <v>1.66</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="9">
         <v>0.75</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="9">
         <v>0.8</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="9">
         <v>0.85</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="9">
         <v>0.9</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="9">
         <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="17">
-        <v>9293</v>
-      </c>
-      <c r="B9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="C9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="D9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="E9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="F9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="G9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="H9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="I9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="J9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="K9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="L9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="M9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="N9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="O9" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="P9" s="8">
-        <v>1.42</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>1.45</v>
-      </c>
-      <c r="R9" s="8">
-        <v>1.48</v>
-      </c>
-      <c r="S9" s="8">
-        <v>1.51</v>
-      </c>
-      <c r="T9" s="8">
-        <v>1.54</v>
-      </c>
-      <c r="U9" s="8">
-        <v>1.57</v>
-      </c>
-      <c r="V9" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="W9" s="8">
-        <v>1.63</v>
-      </c>
-      <c r="X9" s="8">
-        <v>1.66</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>0.95</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2275,434 +2101,387 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>1110</v>
       </c>
-      <c r="B2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="C2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="D2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="E2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="F2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="G2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="H2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="I2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="J2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="K2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="L2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="M2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="N2" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="O2" s="12">
+      <c r="B2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="F2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="G2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="H2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="I2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="J2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="K2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="L2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="M2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="N2" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="O2" s="13">
         <v>45.5</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="13">
+      <c r="A3" s="14">
         <v>1149</v>
       </c>
-      <c r="B3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="C3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="D3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="E3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="F3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="G3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="H3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="I3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="J3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="K3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="L3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="M3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="N3" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="B3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="D3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="E3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="F3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="G3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="H3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="I3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="J3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="K3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="L3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="M3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="N3" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="O3" s="15">
         <v>45.5</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>1109</v>
       </c>
-      <c r="B4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="C4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="D4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="E4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="F4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="G4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="H4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="I4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="J4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="K4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="L4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="M4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="N4" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="O4" s="12">
+      <c r="B4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="G4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="I4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="J4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="K4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="L4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="M4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="N4" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="O4" s="13">
         <v>45.5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>1366</v>
       </c>
-      <c r="B5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="C5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="D5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="E5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="F5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="G5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="H5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="I5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="J5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="K5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="L5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="M5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="N5" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="B5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="D5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="E5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="F5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="G5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="I5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="J5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="K5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="L5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="M5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="N5" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="O5" s="15">
         <v>45.5</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>1009</v>
       </c>
-      <c r="B6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="C6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="D6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="E6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="F6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="G6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="H6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="I6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="J6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="K6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="L6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="M6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="N6" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="O6" s="12">
+      <c r="B6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="E6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="G6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="I6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="J6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="K6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="L6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="M6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="N6" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="O6" s="13">
         <v>45.5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>1057</v>
       </c>
-      <c r="B7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="C7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="D7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="E7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="F7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="G7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="H7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="I7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="J7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="K7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="L7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="M7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="N7" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="O7" s="14">
+      <c r="B7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="F7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="G7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="I7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="J7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="K7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="L7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="M7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="N7" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="O7" s="15">
         <v>45.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>1234</v>
       </c>
-      <c r="B8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="C8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="D8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="E8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="F8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="G8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="H8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="I8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="J8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="K8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="L8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="M8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="N8" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="O8" s="12">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="18">
-        <v>9293</v>
-      </c>
-      <c r="B9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="C9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="D9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="E9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="F9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="G9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="H9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="I9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="J9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="K9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="L9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="M9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="N9" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="O9" s="12">
+      <c r="B8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="D8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="E8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="G8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="I8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="J8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="K8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="L8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="M8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="N8" s="13">
+        <v>45.5</v>
+      </c>
+      <c r="O8" s="13">
         <v>45.5</v>
       </c>
     </row>
